--- a/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
+++ b/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
@@ -5,31 +5,30 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="7" r:id="rId1"/>
     <sheet name="제개정이력" sheetId="6" r:id="rId2"/>
-    <sheet name="요구사항 요약표" sheetId="3" r:id="rId3"/>
-    <sheet name="기능 요구사항(SFR)" sheetId="5" r:id="rId4"/>
+    <sheet name="기능 요구사항(SFR)" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'기능 요구사항(SFR)'!$A$4:$I$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'기능 요구사항(SFR)'!$A$4:$I$18</definedName>
     <definedName name="aaaa">'[1]응용시스템(참고)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">제개정이력!$A$1:$M$29</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'기능 요구사항(SFR)'!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'기능 요구사항(SFR)'!$3:$3</definedName>
     <definedName name="가가나리">#REF!</definedName>
     <definedName name="관련근거구분">#REF!</definedName>
     <definedName name="ㅀㄴㅀㄴㅀㄴㅀㄴㄹ">[2]공통코드!#REF!</definedName>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>REQ-SFR-004</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,6 +427,66 @@
   </si>
   <si>
     <t>문서번호</t>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 상의 부족으로 국산 /수입 구분 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 상의 한계로 탑승 시뮬레이션 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 데이터 양 부족으로 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작한 포스터 이미지 팝업으로 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용 여부 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1007,6 +1066,15 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1016,37 +1084,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2257,8 +2316,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2300,11 +2359,11 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="62" t="str">
+      <c r="K2" s="59" t="str">
         <f>표지!B11</f>
         <v xml:space="preserve">요구사항 정의서 </v>
       </c>
-      <c r="L2" s="62"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.3">
@@ -2324,19 +2383,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2362,17 +2421,17 @@
       <c r="C6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="28" t="s">
         <v>59</v>
       </c>
@@ -2389,35 +2448,47 @@
       <c r="C7" s="25">
         <v>45267</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="60"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="24"/>
+      <c r="B8" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="25">
+        <v>45273</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="L8" s="24"/>
       <c r="M8" s="19"/>
     </row>
@@ -2425,13 +2496,13 @@
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="60"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="19"/>
@@ -2440,13 +2511,13 @@
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="60"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="19"/>
@@ -2455,13 +2526,13 @@
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="60"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="19"/>
@@ -2470,13 +2541,13 @@
       <c r="A12" s="23"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="60"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
       <c r="M12" s="19"/>
@@ -2485,13 +2556,13 @@
       <c r="A13" s="23"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="19"/>
@@ -2500,13 +2571,13 @@
       <c r="A14" s="23"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="60"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="19"/>
@@ -2515,13 +2586,13 @@
       <c r="A15" s="23"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="19"/>
@@ -2530,13 +2601,13 @@
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="60"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="19"/>
@@ -2545,13 +2616,13 @@
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="19"/>
@@ -2560,13 +2631,13 @@
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="60"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="19"/>
@@ -2575,13 +2646,13 @@
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="19"/>
@@ -2590,13 +2661,13 @@
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="60"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="19"/>
@@ -2605,13 +2676,13 @@
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="60"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="19"/>
@@ -2620,13 +2691,13 @@
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="60"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="19"/>
@@ -2635,13 +2706,13 @@
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="60"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="19"/>
@@ -2650,13 +2721,13 @@
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="60"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="19"/>
@@ -2738,36 +2809,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -2778,6 +2819,36 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2788,26 +2859,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2820,80 +2878,84 @@
     <col min="6" max="6" width="22.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="58.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="38" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2913,8 +2975,12 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2927,15 +2993,21 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2948,15 +3020,21 @@
       <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2969,15 +3047,23 @@
       <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="64.5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2990,15 +3076,23 @@
       <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3018,8 +3112,12 @@
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,15 +3130,23 @@
       <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3053,15 +3159,21 @@
       <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3074,15 +3186,21 @@
       <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3095,15 +3213,23 @@
       <c r="G14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3116,15 +3242,21 @@
       <c r="G15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3137,15 +3269,21 @@
       <c r="G16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3165,8 +3303,12 @@
       <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3182,86 +3324,8 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:I24"/>
+  <autoFilter ref="A4:I18"/>
   <mergeCells count="10">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="H3:H4"/>
@@ -3276,7 +3340,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H18">
       <formula1>"수용,미수용,조건부 수용"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
+++ b/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'기능 요구사항(SFR)'!$A$4:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'기능 요구사항(SFR)'!$A$4:$I$22</definedName>
     <definedName name="aaaa">'[1]응용시스템(참고)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">제개정이력!$A$1:$M$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'기능 요구사항(SFR)'!$3:$3</definedName>
@@ -54,6 +54,7 @@
     <definedName name="ㅊㅊ">[2]공통코드!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
   <si>
     <t>REQ-SFR-004</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,24 +130,277 @@
     <t>REQ-SFR-007</t>
   </si>
   <si>
-    <t>REQ-SFR-007-02</t>
-  </si>
-  <si>
     <t>REQ-SFR-008</t>
   </si>
   <si>
-    <t>REQ-SFR-009</t>
-  </si>
-  <si>
     <t>REQ-SFR-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 등록</t>
+    <t>중복된 아이디 가입 불가 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-002-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 차량 검색 기능 제공
+- 국산 / 수입 구분
+- 3륜 / 4륜 구분
+- 가격대 선택 기능
+- 색상 선택 기능
+- 버튼을 통해 검색 작동 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 상세 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료용 스쿠터 관련 뉴스 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-005-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국 충전소 위치 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 선택한 지역의 충전소 위치 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조금 지원 자격 자료 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민건강보험 등록 업소 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 선택한 지역의 업체 정보 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">○ 비회원은 글 열람만 가능하게 권한 제한
+- REQ-SFR-008-01 의 게시글, 댓글 작성 불가
+- REQ-SFR-003-02 기능 불가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인자</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경내용</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경사유</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>제·개 정 이 력</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>KepcoA 스프린터 프로젝트 1조</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요구사항 정의서 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서번호</t>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 상의 한계로 탑승 시뮬레이션 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 데이터 양 부족으로 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용 여부 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용 여부 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ-SFR-001-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-003-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-004-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-008-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전동스쿠터 관련 자료 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-004-02</t>
+  </si>
+  <si>
+    <t>REQ-SFR-004-03</t>
+  </si>
+  <si>
+    <t>탑승 안전교육 자료 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작한 포스터 이미지 팝업으로 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-006-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-006-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-007-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강관리보험공단 제공 동영상 메인 홈 재생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-001-04</t>
+  </si>
+  <si>
+    <t>로그인, 로그아웃 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,7 +451,7 @@
       </rPr>
       <t xml:space="preserve">- 아이디
 - 비밀번호
-- 이름
+- 이메일
 </t>
     </r>
     <r>
@@ -223,45 +477,27 @@
 - 생일
 - 성별
 - 전화번호
-- 이메일</t>
+- 이름</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중복된 아이디 가입 불가 기능 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴 기능 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-002-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 차량 검색 기능 제공
-- 국산 / 수입 구분
-- 3륜 / 4륜 구분
-- 가격대 선택 기능
-- 색상 선택 기능
-- 버튼을 통해 검색 작동 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수용 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 상세 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-003-01</t>
+    <t>제조사, 3륜/4륜, 모델명으로 검색필터 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 충전소 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국 의료용 스쿠터 취급 보조금 지원 가능 등록 업체 정보 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-003-02</t>
+  </si>
+  <si>
+    <t>구매 버튼 클릭 시 네이버 쇼핑으로 이동(해당 모델 자동 검색)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -280,164 +516,35 @@
 - 차량 사진
 - 차량 제원
 - 가격대
+- 구매 버튼
 - 탑승 시뮬레이션</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평점 및 한줄 리뷰 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련 뉴스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-004-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의료용 스쿠터 관련 뉴스 기능 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 충전소 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-005-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전국 충전소 위치 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 선택한 지역의 충전소 위치 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 구매 보조금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-006-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조금 지원 자격 자료 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민건강보험 등록 업소 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-007-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전국 의료용 스쿠터 취급 보조금 지원 가능 등록 업체 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 선택한 지역의 업체 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 회원 간 자유로운 소통 공간 제공
-- 게시글 작성
-- 게시글 작성 내 첨부파일 기능 제공
-- 댓글, 대댓글 기능 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원 권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-009-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-008-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-003-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">○ 비회원은 글 열람만 가능하게 권한 제한
-- REQ-SFR-008-01 의 게시글, 댓글 작성 불가
-- REQ-SFR-003-02 기능 불가 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인자</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경내용</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경사유</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경일</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>버전</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>제·개 정 이 력</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>KepcoA 스프린터 프로젝트 1조</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">요구사항 정의서 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서번호</t>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 상의 부족으로 국산 /수입 구분 제외</t>
+    <t>미수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-007-02</t>
+  </si>
+  <si>
+    <t>REQ-SFR-007-03</t>
+  </si>
+  <si>
+    <t>첨부파일 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -445,47 +552,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술 상의 한계로 탑승 시뮬레이션 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스 데이터 양 부족으로 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작한 포스터 이미지 팝업으로 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미수용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미수용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수용 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수용 여부 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김건우</t>
+    <t>댓글, 대댓글 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 기능만 제공
+가입 날짜 DB 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1892,7 +1964,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
       <c r="J3" s="49" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
@@ -2006,7 +2078,7 @@
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -2316,8 +2388,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2349,7 +2421,7 @@
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="33" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
@@ -2384,7 +2456,7 @@
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="60" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -2416,27 +2488,27 @@
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="28" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="61" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
       <c r="K6" s="28" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M6" s="19"/>
     </row>
@@ -2449,21 +2521,21 @@
         <v>45267</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E7" s="63"/>
       <c r="F7" s="62" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
       <c r="J7" s="63"/>
       <c r="K7" s="24" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M7" s="19"/>
     </row>
@@ -2476,35 +2548,49 @@
         <v>45273</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="62" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
       <c r="I8" s="64"/>
       <c r="J8" s="63"/>
       <c r="K8" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="25">
+        <v>45274</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
+      <c r="F9" s="62" t="s">
+        <v>65</v>
+      </c>
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
       <c r="J9" s="63"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2862,10 +2948,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2929,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" s="67" t="s">
         <v>1</v>
@@ -2951,50 +3037,54 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -3003,221 +3093,223 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="64.5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="76.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>90</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3225,25 +3317,25 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -3252,80 +3344,192 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:I18"/>
+  <autoFilter ref="A4:I22"/>
   <mergeCells count="10">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="H3:H4"/>
@@ -3340,7 +3544,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H22">
       <formula1>"수용,미수용,조건부 수용"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
+++ b/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,6 @@
     <definedName name="ㅊㅊ">[2]공통코드!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1138,6 +1137,15 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1146,15 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2431,11 +2430,11 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="59" t="str">
+      <c r="K2" s="62" t="str">
         <f>표지!B11</f>
         <v xml:space="preserve">요구사항 정의서 </v>
       </c>
-      <c r="L2" s="59"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.3">
@@ -2455,19 +2454,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2493,17 +2492,17 @@
       <c r="C6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="28" t="s">
         <v>40</v>
       </c>
@@ -2520,17 +2519,17 @@
       <c r="C7" s="25">
         <v>45267</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="63"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="24" t="s">
         <v>47</v>
       </c>
@@ -2547,17 +2546,17 @@
       <c r="C8" s="25">
         <v>45273</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="63"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="24" t="s">
         <v>61</v>
       </c>
@@ -2574,17 +2573,17 @@
       <c r="C9" s="25">
         <v>45274</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="63"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="24" t="s">
         <v>66</v>
       </c>
@@ -2597,13 +2596,13 @@
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="63"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="19"/>
@@ -2612,13 +2611,13 @@
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="63"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="19"/>
@@ -2627,13 +2626,13 @@
       <c r="A12" s="23"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="63"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
       <c r="M12" s="19"/>
@@ -2642,13 +2641,13 @@
       <c r="A13" s="23"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="63"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="19"/>
@@ -2657,13 +2656,13 @@
       <c r="A14" s="23"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="63"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="19"/>
@@ -2672,13 +2671,13 @@
       <c r="A15" s="23"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="63"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="19"/>
@@ -2687,13 +2686,13 @@
       <c r="A16" s="23"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="63"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="19"/>
@@ -2702,13 +2701,13 @@
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="63"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="19"/>
@@ -2717,13 +2716,13 @@
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="63"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="19"/>
@@ -2732,13 +2731,13 @@
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="63"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="19"/>
@@ -2747,13 +2746,13 @@
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="63"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="19"/>
@@ -2762,13 +2761,13 @@
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="63"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="19"/>
@@ -2777,13 +2776,13 @@
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="63"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="19"/>
@@ -2792,13 +2791,13 @@
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="63"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="19"/>
@@ -2807,13 +2806,13 @@
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="63"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="19"/>
@@ -2895,6 +2894,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -2905,36 +2934,6 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2951,7 +2950,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
+++ b/_documents/요구사항정의서(KPC-SCC-SRS01).xlsx
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'기능 요구사항(SFR)'!$A$4:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'기능 요구사항(SFR)'!$A$4:$I$25</definedName>
     <definedName name="aaaa">'[1]응용시스템(참고)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">제개정이력!$A$1:$M$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'기능 요구사항(SFR)'!$3:$3</definedName>
@@ -54,7 +54,6 @@
     <definedName name="ㅊㅊ">[2]공통코드!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>REQ-SFR-004</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,9 +127,6 @@
   </si>
   <si>
     <t>REQ-SFR-007</t>
-  </si>
-  <si>
-    <t>REQ-SFR-008</t>
   </si>
   <si>
     <t>REQ-SFR-001</t>
@@ -202,16 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비회원 권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">○ 비회원은 글 열람만 가능하게 권한 제한
-- REQ-SFR-008-01 의 게시글, 댓글 작성 불가
-- REQ-SFR-003-02 기능 불가 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최초 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미수용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수용 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +326,6 @@
   </si>
   <si>
     <t>REQ-SFR-004-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-SFR-008-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미수용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REQ-SFR-007-02</t>
   </si>
   <si>
@@ -558,6 +532,95 @@
   <si>
     <t>필수 기능만 제공
 가입 날짜 DB 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-001-05</t>
+  </si>
+  <si>
+    <t>수정 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-008-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-008-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">○ 비회원은 글 열람만 가능하게 권한 제한
+- REQ-SFR-008-01 의 게시글, 댓글 작성 불가
+- REQ-SFR-003-02 기능 불가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 관리자는 모든 기능을 사용할 수 있도록 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 목록 열람 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1964,7 +2027,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
       <c r="J3" s="49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
@@ -2078,7 +2141,7 @@
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -2421,7 +2484,7 @@
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="21"/>
@@ -2456,7 +2519,7 @@
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -2488,27 +2551,27 @@
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
       <c r="K6" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M6" s="19"/>
     </row>
@@ -2521,21 +2584,21 @@
         <v>45267</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="63"/>
       <c r="F7" s="62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
       <c r="J7" s="63"/>
       <c r="K7" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M7" s="19"/>
     </row>
@@ -2548,21 +2611,21 @@
         <v>45273</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
       <c r="I8" s="64"/>
       <c r="J8" s="63"/>
       <c r="K8" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M8" s="19"/>
     </row>
@@ -2575,21 +2638,21 @@
         <v>45274</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="63"/>
       <c r="F9" s="62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
       <c r="J9" s="63"/>
       <c r="K9" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M9" s="19"/>
     </row>
@@ -2948,10 +3011,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3015,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="67" t="s">
         <v>1</v>
@@ -3037,28 +3100,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3066,25 +3129,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -3093,25 +3156,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -3120,167 +3183,167 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="76.5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="76.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
+        <v>85</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3288,28 +3351,28 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3317,52 +3380,54 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -3371,25 +3436,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -3398,25 +3463,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -3425,25 +3490,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>98</v>
+        <v>74</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -3452,25 +3517,25 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -3479,57 +3544,138 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I22" s="3"/>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:I22"/>
+  <autoFilter ref="A4:I25"/>
   <mergeCells count="10">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="H3:H4"/>
@@ -3544,7 +3690,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H25">
       <formula1>"수용,미수용,조건부 수용"</formula1>
     </dataValidation>
   </dataValidations>
